--- a/biology/Botanique/Utricularia_biloba/Utricularia_biloba.xlsx
+++ b/biology/Botanique/Utricularia_biloba/Utricularia_biloba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Utricularia biloba est une espèce de plantes carnivorse appartenant au genre des utriculaires.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire et étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante a été décrite par Robert Brown en 1810. Son épithète spécifique, biloba, vient du latin et fait allusion à la forme de la corolle, partagée en deux lobes.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Taille : plante de 20 cm de haut, l'inflorescence comprise.
 Climat : tropical à tempéré, humide à subhumide.
@@ -577,7 +593,9 @@
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Substrat : 70 % de tourbe blonde, 20 % de sable, 10 % de perlite.
 Lumière : plein soleil
